--- a/WIP/Deliverables/Report 5/Test Result/WS_CommonTest Case_v1.0_EN .xlsx
+++ b/WIP/Deliverables/Report 5/Test Result/WS_CommonTest Case_v1.0_EN .xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WingS\201609JS01\WIP\Documents\Report 5\Test Result\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\WingS\201609JS01 (GitHub Desktop)\WIP\Deliverables\Report 5\Test Result\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19110" windowHeight="7260" tabRatio="821" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19110" windowHeight="7260" tabRatio="821" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Test case List" sheetId="2" r:id="rId1"/>
@@ -257,7 +257,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="187">
   <si>
     <t>TEST CASE</t>
   </si>
@@ -801,18 +801,12 @@
     <t>Check click on 'Về chúng tôi' on footer</t>
   </si>
   <si>
-    <t>Check click on 'Liên hệ' on footer</t>
-  </si>
-  <si>
     <t>Check click on 'Đăng nhập' on footer</t>
   </si>
   <si>
     <t>Click on 'Đăng nhập' on footer</t>
   </si>
   <si>
-    <t>Click on 'Liên hệ' on footer</t>
-  </si>
-  <si>
     <t>Click on  'Về chúng tôi' on footer</t>
   </si>
   <si>
@@ -838,9 +832,6 @@
   </si>
   <si>
     <t>1. Go to link Twitter of WS</t>
-  </si>
-  <si>
-    <t>1.Go to Contact page</t>
   </si>
   <si>
     <t>1.Go to Login page</t>
@@ -2901,7 +2892,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3066,7 +3057,7 @@
       </c>
       <c r="E11" s="72">
         <f>Common!B6</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F11" s="72">
         <f>Common!C6</f>
@@ -3078,7 +3069,7 @@
       </c>
       <c r="H11" s="73">
         <f>Common!E6</f>
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3091,11 +3082,11 @@
       </c>
       <c r="D12" s="72">
         <f>Security!A6</f>
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="E12" s="72">
         <f>Security!B6</f>
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="F12" s="72">
         <f>Security!C6</f>
@@ -3147,23 +3138,23 @@
       </c>
       <c r="D14" s="75">
         <f>SUM(D11:D13)</f>
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="E14" s="75">
-        <f t="shared" ref="E14:H14" si="0">SUM(E11:E13)</f>
-        <v>28</v>
+        <f>SUM(E11:E13)</f>
+        <v>0</v>
       </c>
       <c r="F14" s="75">
         <f>SUM(F11:F13)</f>
         <v>0</v>
       </c>
       <c r="G14" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E14:H14" si="0">SUM(G11:G13)</f>
         <v>0</v>
       </c>
       <c r="H14" s="75">
         <f t="shared" si="0"/>
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -3202,7 +3193,7 @@
       <c r="D17" s="66"/>
       <c r="E17" s="80">
         <f>D14*100/(H14-G14)</f>
-        <v>70.833333333333329</v>
+        <v>100</v>
       </c>
       <c r="F17" s="66" t="s">
         <v>43</v>
@@ -3241,10 +3232,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IW29"/>
+  <dimension ref="A1:IW28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.25" defaultRowHeight="13.5" customHeight="1"/>
@@ -4565,24 +4556,24 @@
     </row>
     <row r="6" spans="1:257" ht="13.5" customHeight="1" thickBot="1">
       <c r="A6" s="113">
-        <f>COUNTIF(F11:G177,"Pass")</f>
+        <f>COUNTIF(F11:G176,"Pass")</f>
         <v>34</v>
       </c>
       <c r="B6" s="94">
-        <f>COUNTIF(F11:G624,"Fail")</f>
-        <v>2</v>
+        <f>COUNTIF(F11:G623,"Fail")</f>
+        <v>0</v>
       </c>
       <c r="C6" s="94">
         <f>E6-D6-B6-A6</f>
         <v>0</v>
       </c>
       <c r="D6" s="95">
-        <f>COUNTIF(F11:G624,"N/A")</f>
+        <f>COUNTIF(F11:G623,"N/A")</f>
         <v>0</v>
       </c>
       <c r="E6" s="152">
-        <f>COUNTA(A11:A181)*2</f>
-        <v>36</v>
+        <f>COUNTA(A11:A180)*2</f>
+        <v>34</v>
       </c>
       <c r="F6" s="152"/>
       <c r="G6" s="152"/>
@@ -6132,10 +6123,10 @@
         <v>159</v>
       </c>
       <c r="C21" s="105" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D21" s="105" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E21" s="124"/>
       <c r="F21" s="105" t="s">
@@ -6159,10 +6150,10 @@
         <v>160</v>
       </c>
       <c r="C22" s="105" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D22" s="105" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E22" s="124"/>
       <c r="F22" s="105" t="s">
@@ -6186,7 +6177,7 @@
         <v>161</v>
       </c>
       <c r="C23" s="105" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D23" s="105" t="s">
         <v>52</v>
@@ -6213,7 +6204,7 @@
         <v>162</v>
       </c>
       <c r="C24" s="105" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D24" s="105" t="s">
         <v>107</v>
@@ -6240,7 +6231,7 @@
         <v>163</v>
       </c>
       <c r="C25" s="105" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D25" s="105" t="s">
         <v>153</v>
@@ -6267,7 +6258,7 @@
         <v>164</v>
       </c>
       <c r="C26" s="105" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D26" s="105" t="s">
         <v>105</v>
@@ -6294,7 +6285,7 @@
         <v>165</v>
       </c>
       <c r="C27" s="105" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D27" s="105" t="s">
         <v>106</v>
@@ -6314,57 +6305,30 @@
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="124" t="str">
-        <f>IF(OR(B28&lt;&gt;"",D28&lt;E22&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <f>IF(OR(B28&lt;&gt;"",D28&lt;E23&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Common-18]</v>
       </c>
       <c r="B28" s="105" t="s">
         <v>166</v>
       </c>
       <c r="C28" s="105" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D28" s="105" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E28" s="124"/>
       <c r="F28" s="105" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G28" s="105" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H28" s="107">
         <v>42684</v>
       </c>
       <c r="I28" s="108"/>
       <c r="J28" s="97"/>
-    </row>
-    <row r="29" spans="1:10" ht="12" customHeight="1">
-      <c r="A29" s="124" t="str">
-        <f>IF(OR(B29&lt;&gt;"",D29&lt;E23&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
-        <v>[Common-19]</v>
-      </c>
-      <c r="B29" s="105" t="s">
-        <v>167</v>
-      </c>
-      <c r="C29" s="105" t="s">
-        <v>168</v>
-      </c>
-      <c r="D29" s="105" t="s">
-        <v>180</v>
-      </c>
-      <c r="E29" s="124"/>
-      <c r="F29" s="105" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" s="105" t="s">
-        <v>22</v>
-      </c>
-      <c r="H29" s="107">
-        <v>42684</v>
-      </c>
-      <c r="I29" s="108"/>
-      <c r="J29" s="97"/>
     </row>
   </sheetData>
   <dataConsolidate>
@@ -6380,10 +6344,10 @@
     <mergeCell ref="E6:G6"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G9 G30:G65249">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G9 G29:G65248">
       <formula1>$H$2:$H$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F12:G29">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F12:G28">
       <formula1>$J$2:$J$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -6400,8 +6364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IW27"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G2"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.25" defaultRowHeight="13.5" customHeight="1"/>
@@ -7723,11 +7687,11 @@
     <row r="6" spans="1:257" ht="13.5" customHeight="1" thickBot="1">
       <c r="A6" s="113">
         <f>COUNTIF(F11:G186,"Pass")</f>
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B6" s="94">
         <f>COUNTIF(F11:G633,"Fail")</f>
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="C6" s="94">
         <f>E6-D6-B6-A6</f>
@@ -9052,10 +9016,10 @@
       </c>
       <c r="E12" s="105"/>
       <c r="F12" s="105" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G12" s="105" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H12" s="107">
         <v>42705</v>
@@ -9078,10 +9042,10 @@
       </c>
       <c r="E13" s="105"/>
       <c r="F13" s="105" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G13" s="105" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H13" s="107">
         <v>42705</v>
@@ -9104,10 +9068,10 @@
       </c>
       <c r="E14" s="105"/>
       <c r="F14" s="105" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G14" s="105" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H14" s="107">
         <v>42705</v>
@@ -9127,10 +9091,10 @@
       </c>
       <c r="E15" s="105"/>
       <c r="F15" s="105" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G15" s="105" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H15" s="107">
         <v>42705</v>
@@ -9153,10 +9117,10 @@
       </c>
       <c r="E16" s="105"/>
       <c r="F16" s="105" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G16" s="105" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H16" s="107">
         <v>42705</v>
@@ -9176,10 +9140,10 @@
       </c>
       <c r="E17" s="105"/>
       <c r="F17" s="105" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G17" s="105" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H17" s="107">
         <v>42705</v>
@@ -9199,10 +9163,10 @@
       </c>
       <c r="E18" s="105"/>
       <c r="F18" s="105" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G18" s="105" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H18" s="107">
         <v>42705</v>
@@ -9225,10 +9189,10 @@
       </c>
       <c r="E19" s="105"/>
       <c r="F19" s="105" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G19" s="105" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H19" s="107">
         <v>42705</v>
@@ -9277,10 +9241,10 @@
       </c>
       <c r="E21" s="105"/>
       <c r="F21" s="105" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G21" s="105" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H21" s="107">
         <v>42705</v>
@@ -9310,17 +9274,17 @@
         <v>109</v>
       </c>
       <c r="C23" s="105" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D23" s="105" t="s">
         <v>88</v>
       </c>
       <c r="E23" s="105"/>
       <c r="F23" s="105" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G23" s="105" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H23" s="107">
         <v>42705</v>
@@ -9337,17 +9301,17 @@
         <v>132</v>
       </c>
       <c r="C24" s="105" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D24" s="105" t="s">
         <v>88</v>
       </c>
       <c r="E24" s="105"/>
       <c r="F24" s="105" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G24" s="105" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H24" s="107">
         <v>42705</v>
@@ -9361,20 +9325,20 @@
         <v>ID-10</v>
       </c>
       <c r="B25" s="105" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C25" s="105" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D25" s="105" t="s">
         <v>88</v>
       </c>
       <c r="E25" s="105"/>
       <c r="F25" s="105" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G25" s="105" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H25" s="107">
         <v>42705</v>
@@ -9388,20 +9352,20 @@
         <v>ID-12</v>
       </c>
       <c r="B26" s="105" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C26" s="105" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D26" s="105" t="s">
         <v>88</v>
       </c>
       <c r="E26" s="105"/>
       <c r="F26" s="105" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G26" s="105" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H26" s="107">
         <v>42705</v>
@@ -9441,7 +9405,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G9 G28:G65258">
       <formula1>$H$2:$H$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F12:G21 F23:G27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F23:G27 F12:G21">
       <formula1>$A$5:$D$5</formula1>
     </dataValidation>
   </dataValidations>
@@ -9458,7 +9422,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IW27"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -12229,10 +12193,10 @@
         <v>ID-6</v>
       </c>
       <c r="B17" s="105" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C17" s="105" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D17" s="105" t="s">
         <v>85</v>
@@ -12417,7 +12381,7 @@
         <v>76</v>
       </c>
       <c r="D24" s="105" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E24" s="105"/>
       <c r="F24" s="105" t="s">
